--- a/analisis_python/ClusteringResult/cluster_kmedoidesk=2.xlsx
+++ b/analisis_python/ClusteringResult/cluster_kmedoidesk=2.xlsx
@@ -414,8 +414,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>ASUSTeK Computer Inc.</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>1</v>
@@ -435,16 +437,22 @@
       <c r="G2" t="n">
         <v>64</v>
       </c>
-      <c r="H2" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25Ghz</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Delta DPS-650XB E Rev.00F P/N: 0A100-00370000</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>1</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ASUSTeK Computer Inc.</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -464,16 +472,22 @@
       <c r="G3" t="n">
         <v>64</v>
       </c>
-      <c r="H3" t="n">
-        <v>1</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1</v>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25Ghz</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Delta DPS-650XB E Rev.00F P/N: 0A100-00370000</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>1</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>ASUSTeK Computer Inc.</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -493,16 +507,22 @@
       <c r="G4" t="n">
         <v>64</v>
       </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2</v>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25Ghz</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>ACBEL R1CA2801A REV:C P/N: 0A100-00081500</t>
+        </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>1</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>ASUSTeK Computer Inc.</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -522,16 +542,22 @@
       <c r="G5" t="n">
         <v>64</v>
       </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>2</v>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25Ghz</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>ACBEL R1CA2801A REV:C P/N: 0A100-00081500</t>
+        </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>2</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -551,16 +577,22 @@
       <c r="G6" t="n">
         <v>64</v>
       </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-      <c r="I6" t="n">
-        <v>8</v>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7702 2.00 GHz</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>800W Platinum Efficiency (450-AIQY)</t>
+        </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>2</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -580,16 +612,22 @@
       <c r="G7" t="n">
         <v>64</v>
       </c>
-      <c r="H7" t="n">
-        <v>14</v>
-      </c>
-      <c r="I7" t="n">
-        <v>12</v>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25 GHz</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>750W Titanium Efficiency</t>
+        </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>2</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Dell Inc.</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -609,16 +647,22 @@
       <c r="G8" t="n">
         <v>64</v>
       </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-      <c r="I8" t="n">
-        <v>13</v>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7702 2.00 GHz</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>800W Platinum Efficiency (450-AJEW)</t>
+        </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>3</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Fujitsu</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -638,16 +682,22 @@
       <c r="G9" t="n">
         <v>64</v>
       </c>
-      <c r="H9" t="n">
-        <v>17</v>
-      </c>
-      <c r="I9" t="n">
-        <v>18</v>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25GHz</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> PYBPU651</t>
+        </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>4</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>GIGA-BYTE TECHNOLOGY CO., LTD.</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -667,16 +717,22 @@
       <c r="G10" t="n">
         <v>64</v>
       </c>
-      <c r="H10" t="n">
-        <v>29</v>
-      </c>
-      <c r="I10" t="n">
-        <v>37</v>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>DELTA DPS-1300AB-4 (P/N 25EP0-213000-D0S)</t>
+        </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>6</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>3</v>
@@ -696,16 +752,22 @@
       <c r="G11" t="n">
         <v>64</v>
       </c>
-      <c r="H11" t="n">
-        <v>30</v>
-      </c>
-      <c r="I11" t="n">
-        <v>4</v>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7702 2.0 GHz</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>6</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>2</v>
@@ -725,16 +787,22 @@
       <c r="G12" t="n">
         <v>64</v>
       </c>
-      <c r="H12" t="n">
-        <v>30</v>
-      </c>
-      <c r="I12" t="n">
-        <v>4</v>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7702 2.0 GHz</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>6</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>4</v>
@@ -754,16 +822,22 @@
       <c r="G13" t="n">
         <v>64</v>
       </c>
-      <c r="H13" t="n">
-        <v>30</v>
-      </c>
-      <c r="I13" t="n">
-        <v>4</v>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7702 2.0 GHz</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>6</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>4</v>
@@ -783,16 +857,22 @@
       <c r="G14" t="n">
         <v>64</v>
       </c>
-      <c r="H14" t="n">
-        <v>14</v>
-      </c>
-      <c r="I14" t="n">
-        <v>4</v>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25 GHz</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Shared</t>
+        </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>6</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -812,16 +892,22 @@
       <c r="G15" t="n">
         <v>64</v>
       </c>
-      <c r="H15" t="n">
-        <v>31</v>
-      </c>
-      <c r="I15" t="n">
-        <v>39</v>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7702P 2.00 GHz</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>1 x HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>6</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -841,16 +927,22 @@
       <c r="G16" t="n">
         <v>64</v>
       </c>
-      <c r="H16" t="n">
-        <v>31</v>
-      </c>
-      <c r="I16" t="n">
-        <v>40</v>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7702P 2.00 GHz</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>6</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -870,16 +962,22 @@
       <c r="G17" t="n">
         <v>64</v>
       </c>
-      <c r="H17" t="n">
-        <v>31</v>
-      </c>
-      <c r="I17" t="n">
-        <v>40</v>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7702P 2.00 GHz</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>6</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -899,16 +997,22 @@
       <c r="G18" t="n">
         <v>64</v>
       </c>
-      <c r="H18" t="n">
-        <v>30</v>
-      </c>
-      <c r="I18" t="n">
-        <v>40</v>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7702 2.0 GHz</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>6</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Hewlett Packard Enterprise</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -928,16 +1032,22 @@
       <c r="G19" t="n">
         <v>64</v>
       </c>
-      <c r="H19" t="n">
-        <v>30</v>
-      </c>
-      <c r="I19" t="n">
-        <v>40</v>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7702 2.0 GHz</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit (865438-B21)</t>
+        </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>9</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -957,16 +1067,22 @@
       <c r="G20" t="n">
         <v>64</v>
       </c>
-      <c r="H20" t="n">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>58</v>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25Ghz</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:SP57A03125</t>
+        </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>9</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -986,16 +1102,22 @@
       <c r="G21" t="n">
         <v>64</v>
       </c>
-      <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>58</v>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25Ghz</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:SP57A03125</t>
+        </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>9</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -1015,16 +1137,22 @@
       <c r="G22" t="n">
         <v>64</v>
       </c>
-      <c r="H22" t="n">
-        <v>17</v>
-      </c>
-      <c r="I22" t="n">
-        <v>59</v>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25GHz</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:SP57A14665</t>
+        </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>9</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -1044,16 +1172,22 @@
       <c r="G23" t="n">
         <v>64</v>
       </c>
-      <c r="H23" t="n">
-        <v>17</v>
-      </c>
-      <c r="I23" t="n">
-        <v>59</v>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25GHz</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:SP57A14665</t>
+        </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>9</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -1073,16 +1207,22 @@
       <c r="G24" t="n">
         <v>64</v>
       </c>
-      <c r="H24" t="n">
-        <v>17</v>
-      </c>
-      <c r="I24" t="n">
-        <v>60</v>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25GHz</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:4P57A26293</t>
+        </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>9</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -1102,16 +1242,22 @@
       <c r="G25" t="n">
         <v>64</v>
       </c>
-      <c r="H25" t="n">
-        <v>17</v>
-      </c>
-      <c r="I25" t="n">
-        <v>60</v>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25GHz</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:4P57A26293</t>
+        </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>9</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -1131,16 +1277,22 @@
       <c r="G26" t="n">
         <v>64</v>
       </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>58</v>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25Ghz</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:SP57A03125</t>
+        </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>9</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -1160,16 +1312,22 @@
       <c r="G27" t="n">
         <v>64</v>
       </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>58</v>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25Ghz</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:SP57A03125</t>
+        </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>9</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -1189,16 +1347,22 @@
       <c r="G28" t="n">
         <v>64</v>
       </c>
-      <c r="H28" t="n">
-        <v>17</v>
-      </c>
-      <c r="I28" t="n">
-        <v>59</v>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25GHz</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:SP57A14665</t>
+        </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>9</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -1218,16 +1382,22 @@
       <c r="G29" t="n">
         <v>64</v>
       </c>
-      <c r="H29" t="n">
-        <v>17</v>
-      </c>
-      <c r="I29" t="n">
-        <v>59</v>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25GHz</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:SP57A14665</t>
+        </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>9</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -1247,16 +1417,22 @@
       <c r="G30" t="n">
         <v>64</v>
       </c>
-      <c r="H30" t="n">
-        <v>17</v>
-      </c>
-      <c r="I30" t="n">
-        <v>60</v>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25GHz</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:4P57A26293</t>
+        </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>9</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Lenovo Global Technology</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -1276,16 +1452,22 @@
       <c r="G31" t="n">
         <v>64</v>
       </c>
-      <c r="H31" t="n">
-        <v>17</v>
-      </c>
-      <c r="I31" t="n">
-        <v>60</v>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7742 2.25GHz</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>Lenovo P/N:4P57A26293</t>
+        </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>14</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Supermicro Inc.</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -1305,11 +1487,15 @@
       <c r="G32" t="n">
         <v>64</v>
       </c>
-      <c r="H32" t="n">
-        <v>60</v>
-      </c>
-      <c r="I32" t="n">
-        <v>84</v>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>AMD EPYC 7702 2.0Ghz</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>PWS1K02A-1R (P/N:P1K0ACI15LN1013)</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/analisis_python/ClusteringResult/cluster_kmedoidesk=2.xlsx
+++ b/analisis_python/ClusteringResult/cluster_kmedoidesk=2.xlsx
@@ -416,1085 +416,1457 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>ASUSTeK Computer Inc.</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>1</v>
-      </c>
-      <c r="C2" t="n">
-        <v>20908</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28358</v>
-      </c>
-      <c r="E2" t="n">
-        <v>6061</v>
-      </c>
-      <c r="F2" t="n">
-        <v>64</v>
-      </c>
-      <c r="G2" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;ASUSTeK Computer Inc.</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Result=&gt;20908</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;28358</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;6061</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t># Cores=&gt;64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25Ghz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25Ghz</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Delta DPS-650XB E Rev.00F P/N: 0A100-00370000</t>
+          <t>Power Supply Details=&gt;Delta DPS-650XB E Rev.00F P/N: 0A100-00370000</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASUSTeK Computer Inc.</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1</v>
-      </c>
-      <c r="C3" t="n">
-        <v>21168</v>
-      </c>
-      <c r="D3" t="n">
-        <v>28488</v>
-      </c>
-      <c r="E3" t="n">
-        <v>5895</v>
-      </c>
-      <c r="F3" t="n">
-        <v>64</v>
-      </c>
-      <c r="G3" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;ASUSTeK Computer Inc.</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Result=&gt;21168</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;28488</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;5895</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t># Cores=&gt;64</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25Ghz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25Ghz</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Delta DPS-650XB E Rev.00F P/N: 0A100-00370000</t>
+          <t>Power Supply Details=&gt;Delta DPS-650XB E Rev.00F P/N: 0A100-00370000</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>ASUSTeK Computer Inc.</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>1</v>
-      </c>
-      <c r="C4" t="n">
-        <v>20214</v>
-      </c>
-      <c r="D4" t="n">
-        <v>27225</v>
-      </c>
-      <c r="E4" t="n">
-        <v>5973</v>
-      </c>
-      <c r="F4" t="n">
-        <v>128</v>
-      </c>
-      <c r="G4" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;ASUSTeK Computer Inc.</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Result=&gt;20214</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;27225</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;5973</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t># Cores=&gt;128</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25Ghz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25Ghz</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>ACBEL R1CA2801A REV:C P/N: 0A100-00081500</t>
+          <t>Power Supply Details=&gt;ACBEL R1CA2801A REV:C P/N: 0A100-00081500</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>ASUSTeK Computer Inc.</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>20350</v>
-      </c>
-      <c r="D5" t="n">
-        <v>28081</v>
-      </c>
-      <c r="E5" t="n">
-        <v>6025</v>
-      </c>
-      <c r="F5" t="n">
-        <v>128</v>
-      </c>
-      <c r="G5" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;ASUSTeK Computer Inc.</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Result=&gt;20350</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;28081</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;6025</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t># Cores=&gt;128</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25Ghz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25Ghz</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>ACBEL R1CA2801A REV:C P/N: 0A100-00081500</t>
+          <t>Power Supply Details=&gt;ACBEL R1CA2801A REV:C P/N: 0A100-00081500</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dell Inc.</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>1</v>
-      </c>
-      <c r="C6" t="n">
-        <v>20184</v>
-      </c>
-      <c r="D6" t="n">
-        <v>27497</v>
-      </c>
-      <c r="E6" t="n">
-        <v>5938</v>
-      </c>
-      <c r="F6" t="n">
-        <v>128</v>
-      </c>
-      <c r="G6" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Dell Inc.</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Result=&gt;20184</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;27497</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;5938</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t># Cores=&gt;128</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>AMD EPYC 7702 2.00 GHz</t>
+          <t>Processor=&gt;AMD EPYC 7702 2.00 GHz</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>800W Platinum Efficiency (450-AIQY)</t>
+          <t>Power Supply Details=&gt;800W Platinum Efficiency (450-AIQY)</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dell Inc.</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>1</v>
-      </c>
-      <c r="C7" t="n">
-        <v>16501</v>
-      </c>
-      <c r="D7" t="n">
-        <v>23090</v>
-      </c>
-      <c r="E7" t="n">
-        <v>4830</v>
-      </c>
-      <c r="F7" t="n">
-        <v>64</v>
-      </c>
-      <c r="G7" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Dell Inc.</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Result=&gt;16501</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;23090</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;4830</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t># Cores=&gt;64</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25 GHz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25 GHz</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>750W Titanium Efficiency</t>
+          <t>Power Supply Details=&gt;750W Titanium Efficiency</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dell Inc.</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>1</v>
-      </c>
-      <c r="C8" t="n">
-        <v>20910</v>
-      </c>
-      <c r="D8" t="n">
-        <v>28320</v>
-      </c>
-      <c r="E8" t="n">
-        <v>6166</v>
-      </c>
-      <c r="F8" t="n">
-        <v>128</v>
-      </c>
-      <c r="G8" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Dell Inc.</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Result=&gt;20910</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;28320</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;6166</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t># Cores=&gt;128</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>AMD EPYC 7702 2.00 GHz</t>
+          <t>Processor=&gt;AMD EPYC 7702 2.00 GHz</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>800W Platinum Efficiency (450-AJEW)</t>
+          <t>Power Supply Details=&gt;800W Platinum Efficiency (450-AJEW)</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Fujitsu</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>1</v>
-      </c>
-      <c r="C9" t="n">
-        <v>17278</v>
-      </c>
-      <c r="D9" t="n">
-        <v>23274</v>
-      </c>
-      <c r="E9" t="n">
-        <v>4861</v>
-      </c>
-      <c r="F9" t="n">
-        <v>64</v>
-      </c>
-      <c r="G9" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Fujitsu</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Result=&gt;17278</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;23274</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;4861</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t># Cores=&gt;64</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25GHz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25GHz</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> PYBPU651</t>
+          <t>Power Supply Details=&gt; PYBPU651</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>GIGA-BYTE TECHNOLOGY CO., LTD.</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="n">
-        <v>18748</v>
-      </c>
-      <c r="D10" t="n">
-        <v>26421</v>
-      </c>
-      <c r="E10" t="n">
-        <v>5646</v>
-      </c>
-      <c r="F10" t="n">
-        <v>128</v>
-      </c>
-      <c r="G10" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;GIGA-BYTE TECHNOLOGY CO., LTD.</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Result=&gt;18748</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;26421</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;5646</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t># Cores=&gt;128</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742</t>
+          <t>Processor=&gt;AMD EPYC 7742</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>DELTA DPS-1300AB-4 (P/N 25EP0-213000-D0S)</t>
+          <t>Power Supply Details=&gt;DELTA DPS-1300AB-4 (P/N 25EP0-213000-D0S)</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Hewlett Packard Enterprise</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>3</v>
-      </c>
-      <c r="C11" t="n">
-        <v>17076</v>
-      </c>
-      <c r="D11" t="n">
-        <v>24964</v>
-      </c>
-      <c r="E11" t="n">
-        <v>4810</v>
-      </c>
-      <c r="F11" t="n">
-        <v>384</v>
-      </c>
-      <c r="G11" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Hewlett Packard Enterprise</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;3</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Result=&gt;17076</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;24964</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;4810</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t># Cores=&gt;384</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>AMD EPYC 7702 2.0 GHz</t>
+          <t>Processor=&gt;AMD EPYC 7702 2.0 GHz</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Shared</t>
+          <t>Power Supply Details=&gt;Shared</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Hewlett Packard Enterprise</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>2</v>
-      </c>
-      <c r="C12" t="n">
-        <v>16000</v>
-      </c>
-      <c r="D12" t="n">
-        <v>23831</v>
-      </c>
-      <c r="E12" t="n">
-        <v>4390</v>
-      </c>
-      <c r="F12" t="n">
-        <v>256</v>
-      </c>
-      <c r="G12" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Hewlett Packard Enterprise</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;2</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Result=&gt;16000</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;23831</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;4390</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t># Cores=&gt;256</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>AMD EPYC 7702 2.0 GHz</t>
+          <t>Processor=&gt;AMD EPYC 7702 2.0 GHz</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Shared</t>
+          <t>Power Supply Details=&gt;Shared</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Hewlett Packard Enterprise</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>4</v>
-      </c>
-      <c r="C13" t="n">
-        <v>17436</v>
-      </c>
-      <c r="D13" t="n">
-        <v>25259</v>
-      </c>
-      <c r="E13" t="n">
-        <v>5021</v>
-      </c>
-      <c r="F13" t="n">
-        <v>512</v>
-      </c>
-      <c r="G13" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Hewlett Packard Enterprise</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;4</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Result=&gt;17436</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;25259</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;5021</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t># Cores=&gt;512</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>AMD EPYC 7702 2.0 GHz</t>
+          <t>Processor=&gt;AMD EPYC 7702 2.0 GHz</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Shared</t>
+          <t>Power Supply Details=&gt;Shared</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Hewlett Packard Enterprise</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>4</v>
-      </c>
-      <c r="C14" t="n">
-        <v>17530</v>
-      </c>
-      <c r="D14" t="n">
-        <v>25409</v>
-      </c>
-      <c r="E14" t="n">
-        <v>5298</v>
-      </c>
-      <c r="F14" t="n">
-        <v>512</v>
-      </c>
-      <c r="G14" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Hewlett Packard Enterprise</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;4</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Result=&gt;17530</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;25409</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;5298</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t># Cores=&gt;512</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25 GHz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25 GHz</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Shared</t>
+          <t>Power Supply Details=&gt;Shared</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Hewlett Packard Enterprise</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="n">
-        <v>16226</v>
-      </c>
-      <c r="D15" t="n">
-        <v>23926</v>
-      </c>
-      <c r="E15" t="n">
-        <v>4943</v>
-      </c>
-      <c r="F15" t="n">
-        <v>64</v>
-      </c>
-      <c r="G15" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Hewlett Packard Enterprise</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Result=&gt;16226</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;23926</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;4943</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t># Cores=&gt;64</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>AMD EPYC 7702P 2.00 GHz</t>
+          <t>Processor=&gt;AMD EPYC 7702P 2.00 GHz</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>1 x HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit (865438-B21)</t>
+          <t>Power Supply Details=&gt;1 x HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit (865438-B21)</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Hewlett Packard Enterprise</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>1</v>
-      </c>
-      <c r="C16" t="n">
-        <v>17349</v>
-      </c>
-      <c r="D16" t="n">
-        <v>25194</v>
-      </c>
-      <c r="E16" t="n">
-        <v>5111</v>
-      </c>
-      <c r="F16" t="n">
-        <v>64</v>
-      </c>
-      <c r="G16" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Hewlett Packard Enterprise</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Result=&gt;17349</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;25194</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;5111</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t># Cores=&gt;64</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>AMD EPYC 7702P 2.00 GHz</t>
+          <t>Processor=&gt;AMD EPYC 7702P 2.00 GHz</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit (865438-B21)</t>
+          <t>Power Supply Details=&gt;HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit (865438-B21)</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Hewlett Packard Enterprise</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="n">
-        <v>15724</v>
-      </c>
-      <c r="D17" t="n">
-        <v>22950</v>
-      </c>
-      <c r="E17" t="n">
-        <v>4732</v>
-      </c>
-      <c r="F17" t="n">
-        <v>64</v>
-      </c>
-      <c r="G17" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Hewlett Packard Enterprise</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Result=&gt;15724</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;22950</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;4732</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t># Cores=&gt;64</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>AMD EPYC 7702P 2.00 GHz</t>
+          <t>Processor=&gt;AMD EPYC 7702P 2.00 GHz</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit (865438-B21)</t>
+          <t>Power Supply Details=&gt;HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit (865438-B21)</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Hewlett Packard Enterprise</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="n">
-        <v>18294</v>
-      </c>
-      <c r="D18" t="n">
-        <v>26252</v>
-      </c>
-      <c r="E18" t="n">
-        <v>5585</v>
-      </c>
-      <c r="F18" t="n">
-        <v>128</v>
-      </c>
-      <c r="G18" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Hewlett Packard Enterprise</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Result=&gt;18294</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;26252</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;5585</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t># Cores=&gt;128</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>AMD EPYC 7702 2.0 GHz</t>
+          <t>Processor=&gt;AMD EPYC 7702 2.0 GHz</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit (865438-B21)</t>
+          <t>Power Supply Details=&gt;HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit (865438-B21)</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Hewlett Packard Enterprise</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="n">
-        <v>18051</v>
-      </c>
-      <c r="D19" t="n">
-        <v>25277</v>
-      </c>
-      <c r="E19" t="n">
-        <v>5420</v>
-      </c>
-      <c r="F19" t="n">
-        <v>128</v>
-      </c>
-      <c r="G19" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Hewlett Packard Enterprise</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Result=&gt;18051</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;25277</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;5420</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t># Cores=&gt;128</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>AMD EPYC 7702 2.0 GHz</t>
+          <t>Processor=&gt;AMD EPYC 7702 2.0 GHz</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit (865438-B21)</t>
+          <t>Power Supply Details=&gt;HPE 800W Flex Slot Titanium Hot Plug Low Halogen Power Supply Kit (865438-B21)</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Lenovo Global Technology</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>1</v>
-      </c>
-      <c r="C20" t="n">
-        <v>19422</v>
-      </c>
-      <c r="D20" t="n">
-        <v>26297</v>
-      </c>
-      <c r="E20" t="n">
-        <v>5834</v>
-      </c>
-      <c r="F20" t="n">
-        <v>64</v>
-      </c>
-      <c r="G20" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Lenovo Global Technology</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Result=&gt;19422</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;26297</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;5834</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t># Cores=&gt;64</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25Ghz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25Ghz</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>Lenovo P/N:SP57A03125</t>
+          <t>Power Supply Details=&gt;Lenovo P/N:SP57A03125</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Lenovo Global Technology</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>18555</v>
-      </c>
-      <c r="D21" t="n">
-        <v>25013</v>
-      </c>
-      <c r="E21" t="n">
-        <v>5601</v>
-      </c>
-      <c r="F21" t="n">
-        <v>64</v>
-      </c>
-      <c r="G21" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Lenovo Global Technology</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Result=&gt;18555</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;25013</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;5601</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t># Cores=&gt;64</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25Ghz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25Ghz</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>Lenovo P/N:SP57A03125</t>
+          <t>Power Supply Details=&gt;Lenovo P/N:SP57A03125</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Lenovo Global Technology</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C22" t="n">
-        <v>22467</v>
-      </c>
-      <c r="D22" t="n">
-        <v>29760</v>
-      </c>
-      <c r="E22" t="n">
-        <v>6583</v>
-      </c>
-      <c r="F22" t="n">
-        <v>128</v>
-      </c>
-      <c r="G22" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Lenovo Global Technology</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Result=&gt;22467</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;29760</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;6583</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t># Cores=&gt;128</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25GHz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25GHz</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>Lenovo P/N:SP57A14665</t>
+          <t>Power Supply Details=&gt;Lenovo P/N:SP57A14665</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Lenovo Global Technology</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>1</v>
-      </c>
-      <c r="C23" t="n">
-        <v>22877</v>
-      </c>
-      <c r="D23" t="n">
-        <v>30138</v>
-      </c>
-      <c r="E23" t="n">
-        <v>6672</v>
-      </c>
-      <c r="F23" t="n">
-        <v>128</v>
-      </c>
-      <c r="G23" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Lenovo Global Technology</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Result=&gt;22877</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;30138</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;6672</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t># Cores=&gt;128</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25GHz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25GHz</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>Lenovo P/N:SP57A14665</t>
+          <t>Power Supply Details=&gt;Lenovo P/N:SP57A14665</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Lenovo Global Technology</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>1</v>
-      </c>
-      <c r="C24" t="n">
-        <v>22642</v>
-      </c>
-      <c r="D24" t="n">
-        <v>30034</v>
-      </c>
-      <c r="E24" t="n">
-        <v>6586</v>
-      </c>
-      <c r="F24" t="n">
-        <v>128</v>
-      </c>
-      <c r="G24" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Lenovo Global Technology</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Result=&gt;22642</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;30034</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;6586</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t># Cores=&gt;128</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25GHz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25GHz</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>Lenovo P/N:4P57A26293</t>
+          <t>Power Supply Details=&gt;Lenovo P/N:4P57A26293</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Lenovo Global Technology</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="n">
-        <v>23082</v>
-      </c>
-      <c r="D25" t="n">
-        <v>30477</v>
-      </c>
-      <c r="E25" t="n">
-        <v>6713</v>
-      </c>
-      <c r="F25" t="n">
-        <v>128</v>
-      </c>
-      <c r="G25" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Lenovo Global Technology</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Result=&gt;23082</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;30477</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;6713</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t># Cores=&gt;128</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25GHz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25GHz</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>Lenovo P/N:4P57A26293</t>
+          <t>Power Supply Details=&gt;Lenovo P/N:4P57A26293</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Lenovo Global Technology</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>1</v>
-      </c>
-      <c r="C26" t="n">
-        <v>20176</v>
-      </c>
-      <c r="D26" t="n">
-        <v>27704</v>
-      </c>
-      <c r="E26" t="n">
-        <v>5979</v>
-      </c>
-      <c r="F26" t="n">
-        <v>64</v>
-      </c>
-      <c r="G26" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Lenovo Global Technology</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Result=&gt;20176</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;27704</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;5979</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t># Cores=&gt;64</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25Ghz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25Ghz</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>Lenovo P/N:SP57A03125</t>
+          <t>Power Supply Details=&gt;Lenovo P/N:SP57A03125</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Lenovo Global Technology</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>1</v>
-      </c>
-      <c r="C27" t="n">
-        <v>19149</v>
-      </c>
-      <c r="D27" t="n">
-        <v>26446</v>
-      </c>
-      <c r="E27" t="n">
-        <v>5252</v>
-      </c>
-      <c r="F27" t="n">
-        <v>64</v>
-      </c>
-      <c r="G27" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Lenovo Global Technology</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Result=&gt;19149</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;26446</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;5252</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t># Cores=&gt;64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25Ghz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25Ghz</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>Lenovo P/N:SP57A03125</t>
+          <t>Power Supply Details=&gt;Lenovo P/N:SP57A03125</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Lenovo Global Technology</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>1</v>
-      </c>
-      <c r="C28" t="n">
-        <v>23191</v>
-      </c>
-      <c r="D28" t="n">
-        <v>30749</v>
-      </c>
-      <c r="E28" t="n">
-        <v>6754</v>
-      </c>
-      <c r="F28" t="n">
-        <v>128</v>
-      </c>
-      <c r="G28" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Lenovo Global Technology</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Result=&gt;23191</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;30749</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;6754</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t># Cores=&gt;128</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25GHz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25GHz</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>Lenovo P/N:SP57A14665</t>
+          <t>Power Supply Details=&gt;Lenovo P/N:SP57A14665</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Lenovo Global Technology</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>1</v>
-      </c>
-      <c r="C29" t="n">
-        <v>22879</v>
-      </c>
-      <c r="D29" t="n">
-        <v>30410</v>
-      </c>
-      <c r="E29" t="n">
-        <v>6660</v>
-      </c>
-      <c r="F29" t="n">
-        <v>128</v>
-      </c>
-      <c r="G29" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Lenovo Global Technology</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Result=&gt;22879</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;30410</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;6660</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t># Cores=&gt;128</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25GHz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25GHz</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>Lenovo P/N:SP57A14665</t>
+          <t>Power Supply Details=&gt;Lenovo P/N:SP57A14665</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Lenovo Global Technology</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>1</v>
-      </c>
-      <c r="C30" t="n">
-        <v>23428</v>
-      </c>
-      <c r="D30" t="n">
-        <v>31106</v>
-      </c>
-      <c r="E30" t="n">
-        <v>6793</v>
-      </c>
-      <c r="F30" t="n">
-        <v>128</v>
-      </c>
-      <c r="G30" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Lenovo Global Technology</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Result=&gt;23428</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;31106</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;6793</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t># Cores=&gt;128</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25GHz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25GHz</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>Lenovo P/N:4P57A26293</t>
+          <t>Power Supply Details=&gt;Lenovo P/N:4P57A26293</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Lenovo Global Technology</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>1</v>
-      </c>
-      <c r="C31" t="n">
-        <v>22903</v>
-      </c>
-      <c r="D31" t="n">
-        <v>30496</v>
-      </c>
-      <c r="E31" t="n">
-        <v>6659</v>
-      </c>
-      <c r="F31" t="n">
-        <v>128</v>
-      </c>
-      <c r="G31" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Lenovo Global Technology</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Result=&gt;22903</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;30496</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;6659</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t># Cores=&gt;128</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>AMD EPYC 7742 2.25GHz</t>
+          <t>Processor=&gt;AMD EPYC 7742 2.25GHz</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>Lenovo P/N:4P57A26293</t>
+          <t>Power Supply Details=&gt;Lenovo P/N:4P57A26293</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Supermicro Inc.</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>1</v>
-      </c>
-      <c r="C32" t="n">
-        <v>19391</v>
-      </c>
-      <c r="D32" t="n">
-        <v>27544</v>
-      </c>
-      <c r="E32" t="n">
-        <v>5457</v>
-      </c>
-      <c r="F32" t="n">
-        <v>128</v>
-      </c>
-      <c r="G32" t="n">
-        <v>64</v>
+          <t>Hardware Vendor=&gt;Supermicro Inc.</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Nodes	=&gt;1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Result=&gt;19391</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Performance/power @ 100% of target load	=&gt;27544</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Performance/power @ 10% of target load	=&gt;5457</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t># Cores=&gt;128</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t># Cores Per Chip =&gt;64</t>
+        </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>AMD EPYC 7702 2.0Ghz</t>
+          <t>Processor=&gt;AMD EPYC 7702 2.0Ghz</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
         <is>
-          <t>PWS1K02A-1R (P/N:P1K0ACI15LN1013)</t>
+          <t>Power Supply Details=&gt;PWS1K02A-1R (P/N:P1K0ACI15LN1013)</t>
         </is>
       </c>
     </row>
